--- a/市场情绪监控表.xlsx
+++ b/市场情绪监控表.xlsx
@@ -2,34 +2,46 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="监控表" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -38,12 +50,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
+        <fgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000000FF"/>
+        <fgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -59,14 +76,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -429,13 +448,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -526,8 +545,6 @@
       <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" s="3" t="n">
         <v>2</v>
       </c>
@@ -536,8 +553,49 @@
           <t>金发拉比-6-服饰; 征和工业-4-机械基件</t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>3156</v>
+      </c>
+      <c r="C3" t="n">
+        <v>960</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>大湖股份-渔业</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>